--- a/docs/CDC DECLARATION FISCALE VF.xlsx
+++ b/docs/CDC DECLARATION FISCALE VF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alphasvn\trunk\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="CDC Déclaration Fiscale" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">Marché </t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>TFP</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Droit de timbre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de facture </t>
   </si>
   <si>
     <t>TCL</t>
@@ -332,9 +326,6 @@
     <t>(K*)</t>
   </si>
   <si>
-    <t>(K)/0,18</t>
-  </si>
-  <si>
     <t>(L1)</t>
   </si>
   <si>
@@ -344,24 +335,15 @@
     <t>(L1*)</t>
   </si>
   <si>
-    <t>(L1)/0,06</t>
-  </si>
-  <si>
     <t>(L2*)</t>
   </si>
   <si>
-    <t>(L2)/0,12</t>
-  </si>
-  <si>
     <t>(L3)</t>
   </si>
   <si>
     <t>(L3*)</t>
   </si>
   <si>
-    <t>(L3)/0,18</t>
-  </si>
-  <si>
     <t>(M)</t>
   </si>
   <si>
@@ -576,21 +558,6 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NOMBRE DE FACTURE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(S)</t>
     </r>
   </si>
   <si>
@@ -887,9 +854,6 @@
     <t xml:space="preserve"> TVA RETENUE A LA SOURCE 25%</t>
   </si>
   <si>
-    <t>(L4)/0,25</t>
-  </si>
-  <si>
     <t>Chiffre d'affaire local du mois TTC</t>
   </si>
   <si>
@@ -1009,7 +973,7 @@
   </si>
   <si>
     <r>
-      <t>(B</t>
+      <t>(I)+(J)+(K)+(L</t>
     </r>
     <r>
       <rPr>
@@ -1029,12 +993,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/0,15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(B</t>
+      <t>+(L</t>
     </r>
     <r>
       <rPr>
@@ -1054,33 +1013,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/0,015</t>
-    </r>
-  </si>
-  <si>
-    <t>(C)/0,05</t>
-  </si>
-  <si>
-    <t>(D)/0,015</t>
-  </si>
-  <si>
-    <t>(G1)/0,06</t>
-  </si>
-  <si>
-    <t>(G2)/0,12</t>
-  </si>
-  <si>
-    <t>(H)/0,18</t>
-  </si>
-  <si>
-    <t>(I)/0,06</t>
-  </si>
-  <si>
-    <t>(J)/0,12</t>
-  </si>
-  <si>
-    <r>
-      <t>(I)+(J)+(K)+(L</t>
+      <t>+(L</t>
     </r>
     <r>
       <rPr>
@@ -1090,7 +1023,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1)</t>
+      <t>3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(I*+(J*)+(K*)+(L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1048,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+(L</t>
+      <t>*)+(L</t>
     </r>
     <r>
       <rPr>
@@ -1110,7 +1058,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2)</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1120,69 +1068,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+(L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(I*+(J*)+(K*)+(L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*)+(L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>*)+(L3*)+(L4*)</t>
     </r>
   </si>
   <si>
     <t>TVA A REPORTER / TVA A PAYER MOIS (Q) = (O) + (P)</t>
-  </si>
-  <si>
-    <t>(R)/0,500</t>
   </si>
   <si>
     <t>(T1*)+(T2*)</t>
@@ -1231,6 +1121,116 @@
   </si>
   <si>
     <t>Total à payer : (V)+ (E3)+(F)+(Q)+(R)+ (T)</t>
+  </si>
+  <si>
+    <r>
+      <t>(B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Taux de B2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Taux de B1</t>
+    </r>
+  </si>
+  <si>
+    <t>(C)/Taux de C</t>
+  </si>
+  <si>
+    <t>(D)/Taux de D</t>
+  </si>
+  <si>
+    <t>(G1)/Taux de G1</t>
+  </si>
+  <si>
+    <t>(G2)/Taux de G2</t>
+  </si>
+  <si>
+    <t>(H)/Taux de H</t>
+  </si>
+  <si>
+    <t>(I)/Taux de I</t>
+  </si>
+  <si>
+    <t>(J)/Taux de J</t>
+  </si>
+  <si>
+    <t>(K)/Taux de K</t>
+  </si>
+  <si>
+    <t>(L1)/Taux de L1</t>
+  </si>
+  <si>
+    <t>(L2)/Taux de L2</t>
+  </si>
+  <si>
+    <t>(L3)/Taux de L3</t>
+  </si>
+  <si>
+    <t>(L4)/Taux de L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nbre des facture </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOMBRE DES FACTURE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(S)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre des factures </t>
+  </si>
+  <si>
+    <t>Droit de timbre</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,7 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,6 +1734,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2258,8 +2263,8 @@
   </sheetPr>
   <dimension ref="A2:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E133" sqref="A1:E133"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2280,7 @@
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2307,22 +2312,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -2356,40 +2361,40 @@
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>45</v>
+      <c r="C11" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="11">
         <v>0.15</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>42</v>
+      <c r="E11" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>46</v>
+      <c r="C12" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="11">
         <v>0.15</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>43</v>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>104</v>
+      <c r="C13" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="28" t="s">
-        <v>105</v>
+      <c r="E13" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2404,7 +2409,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2430,39 +2435,39 @@
       <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>84</v>
+      <c r="C17" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="19">
         <v>0.05</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>99</v>
+      <c r="E17" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="45"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="2:16" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
@@ -2482,28 +2487,28 @@
       <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>85</v>
+      <c r="C21" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="D21" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>86</v>
+      <c r="E21" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -2513,7 +2518,7 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2521,35 +2526,35 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C27" s="11">
         <v>0.02</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>170</v>
+      <c r="D27" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="37" t="s">
-        <v>171</v>
+      <c r="D28" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -2557,9 +2562,9 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
-        <v>169</v>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2570,7 +2575,7 @@
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="13"/>
@@ -2578,25 +2583,25 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B33" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C33" s="11">
         <v>0.01</v>
       </c>
-      <c r="D33" s="89" t="s">
-        <v>196</v>
+      <c r="D33" s="88" t="s">
+        <v>178</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -2608,7 +2613,7 @@
     </row>
     <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2622,7 +2627,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2637,61 +2642,61 @@
         <v>5</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="D39" s="11">
         <v>0.06</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>146</v>
+      <c r="E39" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>145</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="D40" s="11">
         <v>0.12</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>147</v>
+      <c r="E40" s="30" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D41" s="11">
         <v>0.18</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>53</v>
+      <c r="E41" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>74</v>
+      <c r="C42" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="32" t="s">
-        <v>73</v>
+      <c r="E42" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -2702,7 +2707,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2717,117 +2722,117 @@
         <v>5</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>89</v>
+        <v>21</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="D46" s="11">
         <v>0.06</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>94</v>
+      <c r="E46" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D47" s="11">
         <v>0.12</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>58</v>
+      <c r="E47" s="30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D48" s="11">
         <v>0.18</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>61</v>
+      <c r="E48" s="30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>91</v>
+        <v>31</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="D49" s="11">
         <v>0.06</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>97</v>
+      <c r="E49" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>92</v>
+        <v>32</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="D50" s="11">
         <v>0.12</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>96</v>
+      <c r="E50" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>93</v>
+        <v>33</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="D51" s="11">
         <v>0.18</v>
       </c>
-      <c r="E51" s="31" t="s">
-        <v>95</v>
+      <c r="E51" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="D52" s="11">
         <v>0.25</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>132</v>
+      <c r="E52" s="30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>76</v>
+      <c r="C53" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="32" t="s">
-        <v>75</v>
+      <c r="E53" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -2837,10 +2842,10 @@
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C55" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="92"/>
+      <c r="C55" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="91"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -2849,10 +2854,10 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C57" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="92"/>
+      <c r="C57" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="91"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -2862,12 +2867,12 @@
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
+      <c r="B59" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
@@ -2877,7 +2882,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2890,34 +2895,34 @@
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="10"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="10"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="6"/>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="94"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2937,31 +2942,31 @@
         <v>5</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
-        <v>133</v>
+      <c r="B69" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C69" s="14">
         <v>2E-3</v>
       </c>
-      <c r="D69" s="39" t="s">
-        <v>134</v>
+      <c r="D69" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="s">
-        <v>135</v>
+      <c r="B70" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C70" s="14">
         <v>1E-3</v>
       </c>
-      <c r="D70" s="39" t="s">
-        <v>136</v>
+      <c r="D70" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E70" s="6"/>
     </row>
@@ -2969,9 +2974,9 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32" t="s">
-        <v>83</v>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,15 +2987,15 @@
     </row>
     <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
-      <c r="B73" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="27"/>
+      <c r="B73" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2998,702 +3003,702 @@
     </row>
     <row r="77" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="90" t="s">
+      <c r="A78" s="34"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="89"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="34"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="74"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="61"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="57"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="57"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="62"/>
+      <c r="D84" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="F84" s="47"/>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="58"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="62"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="63"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="63"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="58"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+    </row>
+    <row r="90" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="62"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="58"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="62"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+    </row>
+    <row r="93" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="62"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="60"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+    </row>
+    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="57"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+    </row>
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="62"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="62"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+    </row>
+    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="80"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="47"/>
+    </row>
+    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="61"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="50"/>
+      <c r="F100" s="47"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="61"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="56"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="61"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="56"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="61"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="90"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="75"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="50" t="s">
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="61"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="87">
+        <v>43666618</v>
+      </c>
+      <c r="C108" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="56"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="61"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="56"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" s="61"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+    </row>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="61"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114" s="56"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="61"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+    </row>
+    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D116" s="56"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+    </row>
+    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="61"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" s="61"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="61"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="61"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" s="61"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" s="61"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" s="56"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="61"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="56"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="61"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="61"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+    </row>
+    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="61"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+    </row>
+    <row r="129" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" s="46"/>
-      <c r="F84" s="48"/>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="59"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="64"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="59"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-    </row>
-    <row r="90" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-    </row>
-    <row r="93" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="63"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C94" s="61"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-    </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="58" t="s">
+      <c r="B129" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="61"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+    </row>
+    <row r="130" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-    </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="B97" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-    </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B98" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C98" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" s="81"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="48"/>
-    </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="B100" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="51"/>
-      <c r="F100" s="48"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" s="57"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="62"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C104" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="57"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B106" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B107" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" s="88">
-        <v>43666618</v>
-      </c>
-      <c r="C108" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="57"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="62"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B110" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C110" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D110" s="57"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B111" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="62"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B112" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B113" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" s="62"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B114" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C115" s="62"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-    </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B116" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="57"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-    </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="62"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" s="62"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="62"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B120" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C120" s="62"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C121" s="62"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="69" t="s">
+      <c r="C130" s="61"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B122" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D123" s="57"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" s="62"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B125" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C125" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" s="57"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B127" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C127" s="62"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
-    </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-    </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C129" s="62"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
-    </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B130" s="48" t="s">
+      <c r="B131" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C130" s="62"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B131" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="C131" s="62"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="72"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
+      <c r="A132" s="71"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
